--- a/biology/Zoologie/Erebia_cyclopius/Erebia_cyclopius.xlsx
+++ b/biology/Zoologie/Erebia_cyclopius/Erebia_cyclopius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erebia cyclopius est une espèce de papillons de la famille des Nymphalidae, de la sous-famille des Satyrinae et du genre Erebia.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Erebia cyclopius[2] a été initialement décrite par Eduard Friedrich von Eversmann en 1844[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Erebia cyclopius a été initialement décrite par Eduard Friedrich von Eversmann en 1844.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Erebia cyclopius aporia Schawerda, 1919 ;
-Erebia cyclopius yoshikurana Kishida &amp; Nakamura, 1941 [3].</t>
+Erebia cyclopius yoshikurana Kishida &amp; Nakamura, 1941 .</t>
         </is>
       </c>
     </row>
@@ -573,7 +589,9 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Erebia cyclopius se nomme Чернушка циклоп en russe.
 </t>
@@ -604,10 +622,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erebia cyclopius est un papillon marron dont l'apex des antérieures présente un ocelle marron doublement pupillé de beige et cerclé de beige[4].
-Le revers des antérieures, marron, présente le même ocelle doublement pupillé et cerclé alors que les postérieures sont marron barrées d'une bande grise[5]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia cyclopius est un papillon marron dont l'apex des antérieures présente un ocelle marron doublement pupillé de beige et cerclé de beige.
+Le revers des antérieures, marron, présente le même ocelle doublement pupillé et cerclé alors que les postérieures sont marron barrées d'une bande grise
 </t>
         </is>
       </c>
@@ -638,10 +658,15 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Période de vol et hivernation
-Il vole en une génération en juin juillet[4].
-Il hiverne au stade de chenille[4].
-Plantes hôtes</t>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération en juin juillet.
+Il hiverne au stade de chenille.
+</t>
         </is>
       </c>
     </row>
@@ -669,13 +694,85 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside dans tout le nord de l'Asie, en Sibérie, dans le nord de la Mongolie, le nord de la Chine et de la Corée[3].
-Biotope
-Il habite les forêts et les rives de cours d'eau.
-Protection
-Pas de statut de protection particulier connu.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans tout le nord de l'Asie, en Sibérie, dans le nord de la Mongolie, le nord de la Chine et de la Corée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Erebia_cyclopius</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_cyclopius</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il habite les forêts et les rives de cours d'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Erebia_cyclopius</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_cyclopius</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier connu.
 </t>
         </is>
       </c>
